--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Nom de la tâche</t>
   </si>
@@ -50,18 +50,9 @@
     <t xml:space="preserve">Charte graphique </t>
   </si>
   <si>
-    <t>2 heures</t>
-  </si>
-  <si>
     <t>à faire</t>
   </si>
   <si>
-    <t xml:space="preserve">Structure </t>
-  </si>
-  <si>
-    <t>3 heures</t>
-  </si>
-  <si>
     <t>normale</t>
   </si>
   <si>
@@ -74,55 +65,85 @@
     <t>Création Logo</t>
   </si>
   <si>
-    <t>1 visiteur peut naviguer dans deux catégories</t>
-  </si>
-  <si>
     <t>Un visiteur peut se connecter pour accéder à sa page/panier</t>
   </si>
   <si>
     <t>Création de la page/panier</t>
   </si>
   <si>
-    <t>Un visiteur peut se connecter à une page à l'aide d'un mdp</t>
-  </si>
-  <si>
-    <t>Création de la page sécurisée</t>
-  </si>
-  <si>
     <t>Installer un filtre pour les éléments</t>
   </si>
   <si>
-    <t>Erwan</t>
-  </si>
-  <si>
     <t>Ioan</t>
   </si>
   <si>
-    <t>20 heures</t>
-  </si>
-  <si>
-    <t>25 heures</t>
-  </si>
-  <si>
-    <t>16 heures</t>
-  </si>
-  <si>
-    <t>12 heures</t>
-  </si>
-  <si>
     <t>basse</t>
   </si>
   <si>
     <t>Un visiteur peut filtrer par moyen de transport/hébergement</t>
   </si>
   <si>
-    <t>Création de deux pages</t>
-  </si>
-  <si>
     <t>Création de deux icônes</t>
   </si>
   <si>
     <t xml:space="preserve">Création de l'icône </t>
+  </si>
+  <si>
+    <t>Création d'un popup "newsletter"</t>
+  </si>
+  <si>
+    <t>Champ pour entrer email ou bouton "non merci"</t>
+  </si>
+  <si>
+    <t>Un visiteur peut consulter les CGV/CGU</t>
+  </si>
+  <si>
+    <t>Création d'une page</t>
+  </si>
+  <si>
+    <t>Un visiteur peut consulter les Mentions Légales</t>
+  </si>
+  <si>
+    <t>Recherche de photos</t>
+  </si>
+  <si>
+    <t>Recherche de photos/thème</t>
+  </si>
+  <si>
+    <t>Un visiteur peut se connecter à une page à l'aide d'un mdp (LUXE)</t>
+  </si>
+  <si>
+    <t>Un visiteur peut naviguer dans deux catégories (Pas cher - Insolite)</t>
+  </si>
+  <si>
+    <t>Création de deux pages (structure)</t>
+  </si>
+  <si>
+    <t>Structure page d'acceuil</t>
+  </si>
+  <si>
+    <t>Création de la page sécurisée (structure)</t>
+  </si>
+  <si>
+    <t>Recherche du contenu (texte)</t>
+  </si>
+  <si>
+    <t>Maquette</t>
+  </si>
+  <si>
+    <t>Réaliser une maquette du site à présenter</t>
+  </si>
+  <si>
+    <t>recherche visuels page d'accueil</t>
+  </si>
+  <si>
+    <t>Création d'une affiche</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -464,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
@@ -499,145 +520,277 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
         <v>17</v>
       </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43">
         <v>5</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>21</v>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <f>SUM(B3:B44)</f>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
